--- a/config_5.18/banner_style_ui.xlsx
+++ b/config_5.18/banner_style_ui.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hallconfig|大厅左边滑动区域配置'!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'upconfig|游戏弹出广告'!$A$1:$N$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'upconfig|游戏弹出广告'!$A$1:$N$95</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -812,24 +812,15 @@
   <si>
     <t>"act_040_mslb","login","panel"</t>
   </si>
-  <si>
-    <t>"act_ty_hlqjd","panel"</t>
-  </si>
-  <si>
-    <t>欢乐五月天</t>
-  </si>
-  <si>
-    <t>"act_ty_hlwyt","panel"</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -891,8 +882,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,6 +927,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -928,37 +986,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,41 +1001,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,21 +1022,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1108,7 +1099,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,25 +1189,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,145 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,32 +1308,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,15 +1328,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,9 +1349,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,11 +1384,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,10 +1413,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,139 +1425,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,9 +1673,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2042,7 +2030,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -2092,10 +2080,10 @@
   <sheetPr/>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4856,11 +4844,11 @@
       <c r="J90" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K90" s="39">
-        <v>1619481600</v>
-      </c>
-      <c r="L90" s="39">
-        <v>1620662399</v>
+      <c r="K90" s="7">
+        <v>1621296000</v>
+      </c>
+      <c r="L90" s="7">
+        <v>1621871999</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:12">
@@ -4956,66 +4944,14 @@
         <v>1620662399</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>155</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>112</v>
-      </c>
-      <c r="H94" t="s">
-        <v>186</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" s="7">
-        <v>1620691200</v>
-      </c>
-      <c r="L94" s="7">
-        <v>1621267199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>112</v>
-      </c>
-      <c r="H95" t="s">
-        <v>188</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K95" s="7">
-        <v>1621296000</v>
-      </c>
-      <c r="L95" s="7">
-        <v>1621871999</v>
-      </c>
+    <row r="94" spans="10:10">
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N94">
+  <autoFilter ref="A1:N95">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_5.18/banner_style_ui.xlsx
+++ b/config_5.18/banner_style_ui.xlsx
@@ -881,29 +881,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -912,7 +889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +904,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,6 +942,60 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,74 +1010,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1026,11 +1018,19 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1099,7 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,43 +1117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,49 +1147,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1171,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,7 +1231,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,31 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,15 +1308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1332,17 +1323,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,24 +1358,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1405,6 +1372,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1413,10 +1413,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,133 +1425,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2077,13 +2077,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2147,7 +2147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" hidden="1" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" hidden="1" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" hidden="1" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" hidden="1" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" hidden="1" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" hidden="1" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" hidden="1" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" hidden="1" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" hidden="1" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" hidden="1" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
+    <row r="13" s="1" customFormat="1" hidden="1" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:12">
+    <row r="14" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:12">
+    <row r="15" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:12">
+    <row r="16" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:12">
+    <row r="17" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:12">
+    <row r="19" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:12">
+    <row r="20" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:12">
+    <row r="21" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:12">
+    <row r="22" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:12">
+    <row r="23" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:12">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:12">
+    <row r="24" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:12">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1573487999</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:12">
+    <row r="25" ht="16.5" hidden="1" spans="1:12">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:12">
+    <row r="26" ht="16.5" hidden="1" spans="1:12">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:12">
+    <row r="28" ht="16.5" hidden="1" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1571673599</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:12">
+    <row r="29" ht="16.5" hidden="1" spans="1:12">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:12">
+    <row r="30" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:12">
+    <row r="32" ht="16.5" hidden="1" spans="1:12">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" hidden="1" spans="1:12">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1575302399</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" hidden="1" spans="1:12">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>1575907199</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" hidden="1" spans="1:12">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:12">
+    <row r="37" s="2" customFormat="1" hidden="1" spans="1:12">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" hidden="1" spans="1:12">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>1577289599</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" hidden="1" spans="1:12">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" hidden="1" spans="1:12">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>1578326399</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" hidden="1" spans="1:12">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>1578931199</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" hidden="1" spans="1:12">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1581350399</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:12">
+    <row r="43" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" hidden="1" spans="1:12">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1582559999</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" hidden="1" spans="1:12">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1583164799</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" hidden="1" spans="1:12">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1583769599</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" hidden="1" spans="1:12">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1584374399</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" hidden="1" spans="1:12">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>1584374399</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:12">
+    <row r="50" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>1588003199</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:12">
+    <row r="52" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:12">
+    <row r="54" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:12">
+    <row r="55" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1586188799</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" hidden="1" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>1586793599</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" hidden="1" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>1586793599</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" hidden="1" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>1587398399</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" hidden="1" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>1590422399</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" hidden="1" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" spans="1:12">
+    <row r="62" s="5" customFormat="1" hidden="1" spans="1:12">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" hidden="1" spans="1:12">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>1588607999</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" hidden="1" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>1589212799</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" hidden="1" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1589817599</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" hidden="1" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1590422399</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" hidden="1" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>1591027199</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" hidden="1" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" hidden="1" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1603123199</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" spans="1:12">
+    <row r="77" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1600099199</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:12">
+    <row r="78" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>1600099199</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:12">
+    <row r="79" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1606147199</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:12">
+    <row r="80" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1601913599</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:12">
+    <row r="81" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1603727999</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:12">
+    <row r="82" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>1604332799</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:12">
+    <row r="83" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1604937599</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+    <row r="84" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" spans="1:12">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" hidden="1" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" hidden="1" spans="1:12">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1609775999</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:12">
+    <row r="88" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1610380799</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" hidden="1" spans="1:12">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4833,10 +4833,10 @@
         <v>177</v>
       </c>
       <c r="E90" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="6">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>178</v>
@@ -4851,7 +4851,7 @@
         <v>1621871999</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:12">
+    <row r="91" s="1" customFormat="1" hidden="1" spans="1:12">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="15.75" spans="1:12">
+    <row r="93" s="1" customFormat="1" ht="15.75" hidden="1" spans="1:12">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4952,6 +4952,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N95">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val=""/>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_5.18/banner_style_ui.xlsx
+++ b/config_5.18/banner_style_ui.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -815,14 +815,20 @@
   <si>
     <t>"act_ty_hlqjd","panel"</t>
   </si>
+  <si>
+    <t>欢乐五月天</t>
+  </si>
+  <si>
+    <t>"act_ty_hlwyt","panel"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -884,62 +890,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,8 +912,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,6 +953,45 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,16 +1019,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,19 +1035,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1102,7 +1108,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,13 +1168,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,25 +1204,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,25 +1234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,49 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,37 +1282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,6 +1317,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1322,24 +1358,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,17 +1386,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,21 +1414,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1416,10 +1422,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,133 +1434,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2084,12 +2090,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S100" sqref="S100"/>
+      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4806,7 +4812,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1">
         <v>110</v>
@@ -4839,7 +4845,7 @@
         <v>177</v>
       </c>
       <c r="E90" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="6">
         <v>100</v>
@@ -4868,7 +4874,7 @@
         <v>179</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1">
         <v>110</v>
@@ -4929,7 +4935,7 @@
         <v>183</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1">
         <v>111</v>
@@ -4961,7 +4967,7 @@
         <v>155</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>112</v>
@@ -4977,6 +4983,35 @@
       </c>
       <c r="L94" s="7">
         <v>1621267199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>112</v>
+      </c>
+      <c r="H95" t="s">
+        <v>188</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="7">
+        <v>1621296000</v>
+      </c>
+      <c r="L95" s="7">
+        <v>1621871999</v>
       </c>
     </row>
   </sheetData>
